--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/mobility-risk-assessment</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/mobility-risk-assessment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,7 +654,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://example.org/CodeSystem/mobility-assessment-method"/&gt;
+  &lt;system value="https://2rdoc.pt/fhir/CodeSystem/mobility-assessment-method"/&gt;
   &lt;code value="standardized"/&gt;
   &lt;display value="Standardized Mobility Assessment"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -843,7 +843,7 @@
     <t>RiskAssessment.basis</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://github.com/RicardoLSantos/shorthand/StructureDefinition/mobility-profile|Observation|QuestionnaireResponse)
+    <t xml:space="preserve">Reference(https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/mobility-profile|Observation|QuestionnaireResponse)
 </t>
   </si>
   <si>
@@ -1039,7 +1039,7 @@
     <t>RiskAssessment.prediction:fallRisk.outcome</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/fall-risk-outcomes</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/fall-risk-outcomes</t>
   </si>
   <si>
     <t>RiskAssessment.prediction:fallRisk.probability[x]</t>
@@ -1058,7 +1058,7 @@
     <t>RiskAssessment.prediction:fallRisk.qualitativeRisk</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/risk-level</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/risk-level</t>
   </si>
   <si>
     <t>RiskAssessment.prediction:fallRisk.relativeRisk</t>
@@ -1088,7 +1088,7 @@
     <t>RiskAssessment.prediction:mobilityDecline.outcome</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/mobility-decline-outcomes</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/mobility-decline-outcomes</t>
   </si>
   <si>
     <t>RiskAssessment.prediction:mobilityDecline.probability[x]</t>
@@ -1127,7 +1127,7 @@
     <t>RiskAssessment.prediction:assistanceNeeded.outcome</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/assistance-level-outcomes</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/assistance-level-outcomes</t>
   </si>
   <si>
     <t>RiskAssessment.prediction:assistanceNeeded.probability[x]</t>
@@ -1505,17 +1505,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.6953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.3671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="118.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1524,27 +1524,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.2578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.81640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="104.44921875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="38.6875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="90.09765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.37109375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6577,7 +6577,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
@@ -6690,7 +6690,7 @@
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
@@ -6924,7 +6924,7 @@
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>20</v>
@@ -7856,7 +7856,7 @@
         <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>20</v>
@@ -7969,7 +7969,7 @@
         <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>20</v>
@@ -8203,7 +8203,7 @@
         <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>20</v>
@@ -9135,7 +9135,7 @@
         <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>20</v>
@@ -9248,7 +9248,7 @@
         <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>20</v>
@@ -9482,7 +9482,7 @@
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>20</v>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -674,7 +674,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/mobility-assessment-method"/&gt;
   &lt;code value="standardized"/&gt;
-  &lt;display value="Standardized Mobility Assessment"/&gt;
+  &lt;display value="Standardized Test"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -3126,7 +3126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>169</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>177</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>208</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>224</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>239</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>269</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>290</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>296</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>304</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>326</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>331</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>335</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>337</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>342</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>347</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>350</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>351</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>355</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>360</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>363</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>364</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>373</v>
       </c>
@@ -10217,12 +10217,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO74">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mobility-risk-assessment.xlsx
+++ b/output/StructureDefinition-mobility-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
